--- a/other2/thomas/hashing/CF_7D_PalindromeDegree/CF_7D_PalindromeDegree.xlsx
+++ b/other2/thomas/hashing/CF_7D_PalindromeDegree/CF_7D_PalindromeDegree.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\competitive-programming\other2\thomas\hashing\CF_7D_PalindromeDegree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\hashing\CF_7D_PalindromeDegree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7B941B-D5A0-4B51-8205-8C9307A8394A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD854A7-0396-4080-A6F3-838A40DA9100}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24686" windowHeight="11091" xr2:uid="{BEB360FD-5F44-4DFF-BFF1-97E7E050819B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11090" xr2:uid="{BEB360FD-5F44-4DFF-BFF1-97E7E050819B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="5">
   <si>
     <t>C</t>
   </si>
   <si>
     <t>e</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,8 +69,25 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +112,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -100,24 +133,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,145 +496,689 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30A8AF4-A366-4064-999E-67A777CB2E0C}">
-  <dimension ref="B2:K7"/>
+  <dimension ref="B2:T23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="11" width="4" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2" max="7" width="4" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" style="1" customWidth="1"/>
+    <col min="10" max="19" width="5.08203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.75" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="6">
         <v>6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>2</v>
+      </c>
+      <c r="L2" s="6">
+        <v>3</v>
+      </c>
+      <c r="M2" s="6">
+        <v>4</v>
+      </c>
+      <c r="N2" s="6">
+        <v>5</v>
+      </c>
+      <c r="O2" s="6">
+        <v>6</v>
+      </c>
+      <c r="P2" s="6">
         <v>7</v>
       </c>
-      <c r="I2" s="1">
+      <c r="Q2" s="6">
         <v>8</v>
       </c>
-      <c r="J2" s="1">
+      <c r="R2" s="6">
         <v>9</v>
       </c>
-      <c r="K2" s="1">
+      <c r="S2" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>1</v>
+      <c r="T2" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="14"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="14"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="14"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="14"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="14"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="14"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H10" s="14"/>
+      <c r="T10" s="14"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H12" s="14"/>
+      <c r="T12" s="14"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="H14" s="14"/>
+      <c r="T14" s="14"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="14">
+        <v>3</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="T16" s="14"/>
+    </row>
+    <row r="17" spans="10:20" x14ac:dyDescent="0.3">
+      <c r="J17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="10:20" x14ac:dyDescent="0.3">
+      <c r="T18" s="14"/>
+    </row>
+    <row r="19" spans="10:20" x14ac:dyDescent="0.3">
+      <c r="J19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="10:20" x14ac:dyDescent="0.3">
+      <c r="T20" s="14"/>
+    </row>
+    <row r="21" spans="10:20" x14ac:dyDescent="0.3">
+      <c r="J21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="10:20" x14ac:dyDescent="0.3">
+      <c r="T22" s="14"/>
+    </row>
+    <row r="23" spans="10:20" x14ac:dyDescent="0.3">
+      <c r="J23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" s="14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/other2/thomas/hashing/CF_7D_PalindromeDegree/CF_7D_PalindromeDegree.xlsx
+++ b/other2/thomas/hashing/CF_7D_PalindromeDegree/CF_7D_PalindromeDegree.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\hashing\CF_7D_PalindromeDegree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\competitive-programming\other2\thomas\hashing\CF_7D_PalindromeDegree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD854A7-0396-4080-A6F3-838A40DA9100}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608F91EE-BCE0-475D-BFDB-F94AC0B31457}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11090" xr2:uid="{BEB360FD-5F44-4DFF-BFF1-97E7E050819B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24694" windowHeight="11091" xr2:uid="{BEB360FD-5F44-4DFF-BFF1-97E7E050819B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="13">
   <si>
     <t>C</t>
   </si>
@@ -41,6 +41,37 @@
   <si>
     <t>k</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCeCeCCCee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abacaba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp[3]+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp[1]+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp[0]+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree</t>
   </si>
 </sst>
 </file>
@@ -133,7 +164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -180,6 +211,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,24 +530,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30A8AF4-A366-4064-999E-67A777CB2E0C}">
-  <dimension ref="B2:T23"/>
+  <dimension ref="B1:V23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.45" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="7" width="4" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="1" customWidth="1"/>
-    <col min="10" max="19" width="5.08203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.75" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1640625" style="1"/>
+    <col min="9" max="9" width="5.2109375" style="1" customWidth="1"/>
+    <col min="10" max="19" width="5.0703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10" style="16" customWidth="1"/>
+    <col min="22" max="22" width="5.0703125" style="16" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -568,8 +615,14 @@
       <c r="T2" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -620,8 +673,14 @@
         <v>1</v>
       </c>
       <c r="T3" s="14"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U3" s="16">
+        <v>0</v>
+      </c>
+      <c r="V3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -641,7 +700,7 @@
       <c r="S4" s="3"/>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -696,8 +755,14 @@
       <c r="T5" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -717,7 +782,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -772,8 +837,14 @@
       <c r="T7" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -793,7 +864,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
@@ -848,12 +919,18 @@
       <c r="T9" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
       <c r="H10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
@@ -908,12 +985,18 @@
       <c r="T11" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U11" s="16">
+        <v>0</v>
+      </c>
+      <c r="V11" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
       <c r="H12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
@@ -968,12 +1051,18 @@
       <c r="T13" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U13" s="16">
+        <v>0</v>
+      </c>
+      <c r="V13" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
       <c r="H14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1028,11 +1117,17 @@
       <c r="T15" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U15" s="16">
+        <v>0</v>
+      </c>
+      <c r="V15" s="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="10:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:22" x14ac:dyDescent="0.35">
       <c r="J17" s="10" t="s">
         <v>0</v>
       </c>
@@ -1066,11 +1161,17 @@
       <c r="T17" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="10:20" x14ac:dyDescent="0.3">
+      <c r="U17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="10:22" x14ac:dyDescent="0.35">
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="10:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:22" x14ac:dyDescent="0.35">
       <c r="J19" s="10" t="s">
         <v>0</v>
       </c>
@@ -1104,11 +1205,14 @@
       <c r="T19" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="10:20" x14ac:dyDescent="0.3">
+      <c r="V19" s="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="10:22" x14ac:dyDescent="0.35">
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="10:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:22" x14ac:dyDescent="0.35">
       <c r="J21" s="10" t="s">
         <v>0</v>
       </c>
@@ -1142,11 +1246,14 @@
       <c r="T21" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="10:20" x14ac:dyDescent="0.3">
+      <c r="V21" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="10:22" x14ac:dyDescent="0.35">
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="10:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="10:22" x14ac:dyDescent="0.35">
       <c r="J23" s="10" t="s">
         <v>0</v>
       </c>
@@ -1179,6 +1286,9 @@
       </c>
       <c r="T23" s="14">
         <v>0</v>
+      </c>
+      <c r="V23" s="16">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/other2/thomas/hashing/CF_7D_PalindromeDegree/CF_7D_PalindromeDegree.xlsx
+++ b/other2/thomas/hashing/CF_7D_PalindromeDegree/CF_7D_PalindromeDegree.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thomas\Documents\competitive-programming\other2\thomas\hashing\CF_7D_PalindromeDegree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\hashing\CF_7D_PalindromeDegree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608F91EE-BCE0-475D-BFDB-F94AC0B31457}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6361B7-312E-44DA-B5E2-1028D54D9849}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24694" windowHeight="11091" xr2:uid="{BEB360FD-5F44-4DFF-BFF1-97E7E050819B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24690" windowHeight="11090" xr2:uid="{BEB360FD-5F44-4DFF-BFF1-97E7E050819B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,6 +231,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>216633</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>527417</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>61899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08A715B-90E1-43AD-A2CB-601C52E92EDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8569325" y="769327"/>
+          <a:ext cx="3791073" cy="479534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -532,24 +581,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30A8AF4-A366-4064-999E-67A777CB2E0C}">
   <dimension ref="B1:V23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.45" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
     <col min="2" max="7" width="4" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.2109375" style="1" customWidth="1"/>
-    <col min="10" max="19" width="5.0703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.25" style="1" customWidth="1"/>
+    <col min="10" max="19" width="5.08203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.75" style="1" customWidth="1"/>
     <col min="21" max="21" width="10" style="16" customWidth="1"/>
-    <col min="22" max="22" width="5.0703125" style="16" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="22" max="22" width="5.08203125" style="16" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -560,7 +609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -622,7 +671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -680,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -700,7 +749,7 @@
       <c r="S4" s="3"/>
       <c r="T4" s="14"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>2</v>
       </c>
@@ -762,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -782,7 +831,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
@@ -844,7 +893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -864,7 +913,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>2</v>
       </c>
@@ -926,11 +975,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>2</v>
       </c>
@@ -992,11 +1041,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
@@ -1058,11 +1107,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1124,10 +1173,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:22" x14ac:dyDescent="0.3">
       <c r="J17" s="10" t="s">
         <v>0</v>
       </c>
@@ -1168,10 +1217,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:22" x14ac:dyDescent="0.3">
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:22" x14ac:dyDescent="0.3">
       <c r="J19" s="10" t="s">
         <v>0</v>
       </c>
@@ -1209,10 +1258,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="10:22" x14ac:dyDescent="0.3">
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:22" x14ac:dyDescent="0.3">
       <c r="J21" s="10" t="s">
         <v>0</v>
       </c>
@@ -1250,10 +1299,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:22" x14ac:dyDescent="0.3">
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="10:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:22" x14ac:dyDescent="0.3">
       <c r="J23" s="10" t="s">
         <v>0</v>
       </c>
@@ -1295,5 +1344,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>